--- a/src/technology/tutorial-basic/answers/answers.xlsx
+++ b/src/technology/tutorial-basic/answers/answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\tutorial-basic\answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A627EFE-81CF-4750-B6FE-1C7CC3DBA3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F3EFC-5DE6-4654-A71F-B54C8EBCD269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="1815" windowWidth="20910" windowHeight="11775" xr2:uid="{A613468B-4246-47D0-8059-797BD75C3238}"/>
+    <workbookView xWindow="29970" yWindow="-6090" windowWidth="12150" windowHeight="21285" activeTab="2" xr2:uid="{A613468B-4246-47D0-8059-797BD75C3238}"/>
   </bookViews>
   <sheets>
     <sheet name="designs" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="118">
   <si>
     <t>Technology</t>
   </si>
@@ -234,24 +234,6 @@
   </si>
   <si>
     <t>Foundations, roads, civil work.</t>
-  </si>
-  <si>
-    <t>Replacements</t>
-  </si>
-  <si>
-    <t>Replacement components.</t>
-  </si>
-  <si>
-    <t>O&amp;M</t>
-  </si>
-  <si>
-    <t>Operations and maintenance.</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>Land lease.</t>
   </si>
   <si>
     <t>Just a placeholder because at least one input is required.</t>
@@ -767,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BF247-5429-4E4B-9678-6277797CABB5}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3163,9 +3145,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5423B8-8C49-451E-B763-E5AF0240ECDF}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3262,16 +3246,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,16 +3263,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>66</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3296,13 +3280,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
@@ -3313,16 +3297,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3330,16 +3314,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3347,67 +3331,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>74</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3425,13 +3358,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -3439,35 +3372,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3491,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
@@ -3514,7 +3447,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3526,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3537,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3549,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3560,7 +3493,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3572,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3583,7 +3516,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3595,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3606,7 +3539,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -3618,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3629,19 +3562,19 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3652,7 +3585,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3664,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3675,7 +3608,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3687,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3698,7 +3631,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -3710,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,7 +3654,7 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3733,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3744,19 +3677,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3767,7 +3700,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3779,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3790,7 +3723,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3802,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3813,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -3825,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3836,7 +3769,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -3848,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3859,19 +3792,19 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3882,7 +3815,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3894,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3905,7 +3838,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3917,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3928,7 +3861,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3940,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3951,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3963,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3974,7 +3907,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3986,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3997,19 +3930,19 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4020,7 +3953,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -4032,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4043,7 +3976,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -4055,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4066,7 +3999,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -4078,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4089,7 +4022,7 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4101,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4112,19 +4045,19 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4135,7 +4068,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4147,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4158,7 +4091,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -4170,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4181,7 +4114,7 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4193,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4204,7 +4137,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4216,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4227,19 +4160,19 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4250,7 +4183,7 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4262,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4273,7 +4206,7 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4285,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4296,7 +4229,7 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4308,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,7 +4252,7 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4331,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4342,7 +4275,7 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -4354,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4365,19 +4298,19 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4388,7 +4321,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -4400,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4411,7 +4344,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -4423,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4434,7 +4367,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4446,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,7 +4390,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4469,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4480,19 +4413,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,7 +4436,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4515,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4526,7 +4459,7 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -4538,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4549,7 +4482,7 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4561,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4572,7 +4505,7 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4584,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4595,19 +4528,19 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4618,7 +4551,7 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -4630,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4641,7 +4574,7 @@
         <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -4653,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4691,13 +4624,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,13 +4638,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,13 +4652,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,13 +4666,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4747,10 +4680,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4761,10 +4694,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -4785,16 +4718,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -4802,10 +4735,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4816,10 +4749,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -4830,10 +4763,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -4844,10 +4777,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -4858,10 +4791,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -4872,10 +4805,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -4886,10 +4819,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -4900,10 +4833,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -4914,10 +4847,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4928,10 +4861,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -4942,10 +4875,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
@@ -4956,10 +4889,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>

--- a/src/technology/tutorial-basic/answers/answers.xlsx
+++ b/src/technology/tutorial-basic/answers/answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\tutorial-basic\answers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhanes\GitHub\tyche\src\technology\tutorial-basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F3EFC-5DE6-4654-A71F-B54C8EBCD269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E468CA5-93EA-4819-88FC-470ADA17A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="-6090" windowWidth="12150" windowHeight="21285" activeTab="2" xr2:uid="{A613468B-4246-47D0-8059-797BD75C3238}"/>
+    <workbookView xWindow="30990" yWindow="345" windowWidth="17730" windowHeight="15120" xr2:uid="{AA06EC71-7717-4C82-8350-2B72D254338B}"/>
   </bookViews>
   <sheets>
     <sheet name="designs" sheetId="1" r:id="rId1"/>
@@ -42,14 +42,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="107">
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Scenario</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Wind Turbine</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Scale</t>
   </si>
   <si>
@@ -284,21 +278,12 @@
     <t>Rotor Investment Only</t>
   </si>
   <si>
-    <t>No Rotor Investment</t>
-  </si>
-  <si>
     <t>Drive Investment Only</t>
   </si>
   <si>
-    <t>No Drive Investment</t>
-  </si>
-  <si>
     <t>Tower Investment Only</t>
   </si>
   <si>
-    <t>No Tower Investment</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -371,31 +356,13 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Small Investment in Rotor R&amp;D</t>
-  </si>
-  <si>
-    <t>Medium Investment in Rotor R&amp;D</t>
-  </si>
-  <si>
-    <t>Large Investment in Rotor R&amp;D</t>
-  </si>
-  <si>
-    <t>Small Investment in Drive R&amp;D</t>
-  </si>
-  <si>
-    <t>Medium Investment in Drive R&amp;D</t>
-  </si>
-  <si>
-    <t>Large Investment in Drive R&amp;D</t>
-  </si>
-  <si>
-    <t>Small Investment in Tower R&amp;D</t>
-  </si>
-  <si>
-    <t>Medium Investment in Tower R&amp;D</t>
-  </si>
-  <si>
-    <t>Large Investment in Tower R&amp;D</t>
+    <t>Rotor Reference</t>
+  </si>
+  <si>
+    <t>Drive Reference</t>
+  </si>
+  <si>
+    <t>Tower Reference</t>
   </si>
 </sst>
 </file>
@@ -746,2334 +713,2804 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BF247-5429-4E4B-9678-6277797CABB5}">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58172A-44BA-47D6-958C-3833F35637FC}">
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0.59299999999999997</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0.32819999999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
         <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0.59299999999999997</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0.32819999999999999</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
         <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>10</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
         <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
         <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0.59299999999999997</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
         <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0.32819999999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
         <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
         <v>10</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>15</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
         <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
         <v>15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
         <v>15</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0.59299999999999997</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
         <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0.32819999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
         <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>10</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>15</v>
-      </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
         <v>13</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
         <v>15</v>
-      </c>
-      <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
         <v>13</v>
       </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
         <v>15</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
         <v>13</v>
       </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
         <v>15</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0.59299999999999997</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
         <v>27</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>0.32819999999999999</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
         <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>10</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>15</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
         <v>15</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
         <v>13</v>
       </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
         <v>15</v>
-      </c>
-      <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
         <v>15</v>
-      </c>
-      <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0.59299999999999997</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
         <v>27</v>
-      </c>
-      <c r="D59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E60">
         <v>0.32819999999999999</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
         <v>33</v>
-      </c>
-      <c r="D61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
         <v>10</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>14</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>15</v>
-      </c>
-      <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
         <v>15</v>
-      </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
         <v>13</v>
       </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
         <v>15</v>
-      </c>
-      <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
         <v>15</v>
-      </c>
-      <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>0.59299999999999997</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
         <v>27</v>
-      </c>
-      <c r="D69" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E70">
         <v>0.32819999999999999</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
         <v>33</v>
-      </c>
-      <c r="D71" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
         <v>7</v>
       </c>
-      <c r="B72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
         <v>9</v>
       </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
         <v>10</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
         <v>13</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>14</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>15</v>
-      </c>
-      <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
         <v>15</v>
-      </c>
-      <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
         <v>13</v>
       </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
         <v>15</v>
-      </c>
-      <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="D76" t="s">
-        <v>20</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
         <v>15</v>
-      </c>
-      <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>0.59299999999999997</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
         <v>27</v>
-      </c>
-      <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E80">
         <v>0.32819999999999999</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
         <v>33</v>
-      </c>
-      <c r="D81" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
         <v>7</v>
       </c>
-      <c r="B82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" t="s">
+      <c r="G82" t="s">
         <v>10</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>14</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>15</v>
-      </c>
-      <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
         <v>13</v>
       </c>
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
         <v>15</v>
-      </c>
-      <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
         <v>13</v>
       </c>
-      <c r="D85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
         <v>15</v>
-      </c>
-      <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="D86" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
         <v>15</v>
-      </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>0.59299999999999997</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
         <v>27</v>
-      </c>
-      <c r="D89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E90">
         <v>0.32819999999999999</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
         <v>33</v>
-      </c>
-      <c r="D91" t="s">
-        <v>31</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
         <v>7</v>
       </c>
-      <c r="B92" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
         <v>9</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
         <v>10</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
         <v>13</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>14</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>15</v>
-      </c>
-      <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
         <v>13</v>
       </c>
-      <c r="D94" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
         <v>15</v>
-      </c>
-      <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
         <v>15</v>
-      </c>
-      <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
         <v>13</v>
       </c>
-      <c r="D96" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
         <v>15</v>
-      </c>
-      <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>0.59299999999999997</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
         <v>27</v>
-      </c>
-      <c r="D99" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E100">
         <v>0.32819999999999999</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" t="s">
         <v>7</v>
       </c>
-      <c r="B101" t="s">
-        <v>44</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
         <v>33</v>
       </c>
-      <c r="D101" t="s">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" t="s">
         <v>31</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>34</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEB1B46-74EC-4182-94AB-66630EC1D78A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBA2671-2D19-4EE1-92E2-838007A235E3}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3094,48 +3531,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3144,12 +3581,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5423B8-8C49-451E-B763-E5AF0240ECDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A1DD9D-69B1-41D9-9A06-B5167A96D339}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3158,189 +3593,189 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3349,58 +3784,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09184F9C-6CBE-4249-A108-F70A85144612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7487E1-0341-4F16-AC4F-B0619422E921}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3409,45 +3851,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7A7F6-C51A-4296-993F-ABD3322B9938}">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AD1FB0-295E-478B-B9A0-B66E44BF72BC}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3459,18 +3912,18 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3482,18 +3935,18 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3505,18 +3958,18 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3528,18 +3981,18 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -3551,41 +4004,41 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>96</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3597,18 +4050,18 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3620,18 +4073,18 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -3643,18 +4096,18 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3666,41 +4119,41 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>97</v>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3712,18 +4165,18 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3735,18 +4188,18 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -3758,18 +4211,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -3781,41 +4234,41 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3827,18 +4280,18 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3850,18 +4303,18 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3873,18 +4326,18 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3896,64 +4349,64 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>92</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>99</v>
+      <c r="E23">
+        <v>0.9</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3965,18 +4418,18 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -3988,18 +4441,18 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -4011,64 +4464,64 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>0</v>
+      <c r="E27" t="s">
+        <v>93</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>100</v>
+      <c r="E28">
+        <v>0.9</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4080,18 +4533,18 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -4103,18 +4556,18 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4126,18 +4579,18 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4149,41 +4602,41 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4195,18 +4648,18 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4218,18 +4671,18 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4241,18 +4694,18 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4264,64 +4717,64 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>0.9</v>
+      <c r="E38" t="s">
+        <v>95</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
-        <v>102</v>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -4333,18 +4786,18 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -4356,18 +4809,18 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4379,64 +4832,64 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43">
-        <v>0.9</v>
+      <c r="E43" t="s">
+        <v>96</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
-        <v>98</v>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4448,18 +4901,18 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -4471,18 +4924,18 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4494,18 +4947,18 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4517,41 +4970,41 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -4563,18 +5016,18 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -4586,7 +5039,237 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0.9</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0.9</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4595,7 +5278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582C6D20-8276-4D8D-A540-E889EFB05E57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDD261B-01AD-4B96-A824-EC89AB79D98F}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4607,100 +5290,100 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4709,195 +5392,163 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B0404B-9994-498F-B4BE-63E960C20C4D}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F05191-328F-4CED-B8F1-6BE1926447D2}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="D11">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>6000000</v>
       </c>
     </row>
